--- a/raport_z_zarzadzania_projektem.xlsx
+++ b/raport_z_zarzadzania_projektem.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_STUDIA\_SEMESTR5\Inzynieria_Oprogramowania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_STUDIA\GardenPlanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96BBC8C-8B72-4AA2-935D-9602A9770D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A995DCC-7188-4B15-91D8-A10F50B7B1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C072CB22-C9CB-4645-B5DF-C215F3A34585}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
   <si>
     <t>ZADANIE</t>
   </si>
@@ -159,6 +159,90 @@
   </si>
   <si>
     <t>SPRINT 5</t>
+  </si>
+  <si>
+    <t>Finalizacja metody RunSimulation i podłączenie przycisków</t>
+  </si>
+  <si>
+    <t>Implementacja klasy DatabaseManager</t>
+  </si>
+  <si>
+    <t>Implementacja metody LoadPlantTypes</t>
+  </si>
+  <si>
+    <t>Implementacja metody LoadSoilTypes i LoadGrowthRules</t>
+  </si>
+  <si>
+    <t>Refaktoryzacja UI</t>
+  </si>
+  <si>
+    <t>Konfiguracja Timera do symulacji</t>
+  </si>
+  <si>
+    <t>Adaptacja RunSimulation do bycia pojedynczym, miesiecznym krokiem</t>
+  </si>
+  <si>
+    <t>Implementacja metody SaveGardenState</t>
+  </si>
+  <si>
+    <t>Implementacja OptionButon dla wyboru CurrentSoilType</t>
+  </si>
+  <si>
+    <t>Dodanie Label/TextEdit dla każdej rośliny wy.świetlającej wiek i wysokość</t>
+  </si>
+  <si>
+    <t>Dodanie przycisków Zapisz i Wczytaj Ogród</t>
+  </si>
+  <si>
+    <t>Walidacja kolizji przed umieszczeniem</t>
+  </si>
+  <si>
+    <t>Wizualny feedback: rysowanie Czerwonego/Zielonego okręgu na kursorze</t>
+  </si>
+  <si>
+    <t>Implementacja ekranu ładowania/spinnera podczas ładowania danych z bazy.</t>
+  </si>
+  <si>
+    <t>Implementacja LoadGardenState() - odczyt danych i instancjonowanie roślin z DB.</t>
+  </si>
+  <si>
+    <t>Implementacja zapisu danych stanu ogrodu do bazy danych (DB write logic).</t>
+  </si>
+  <si>
+    <t>Sporządzenie wstępnej dokumentacji technicznej: schemat DB (SQL) i API C#.</t>
+  </si>
+  <si>
+    <t>Wszyscy</t>
+  </si>
+  <si>
+    <t>Implementacja pór roku</t>
+  </si>
+  <si>
+    <t>Implementacja wpływu pory roku na bazowy wskaźnik wzrostu</t>
+  </si>
+  <si>
+    <t>Dodanie wizualnego wskaźnika pory roku i postepu czasu w UI</t>
+  </si>
+  <si>
+    <t>Testy integracyjne: Weryfikacja połączenia UI -&gt; DB -&gt; Symulacja.</t>
+  </si>
+  <si>
+    <t>Testy funkcjonalne Save/Load: Weryfikacja stanu po zapisie/wczytaniu.</t>
+  </si>
+  <si>
+    <t>Testy krańcowe kolizji i zacienienia (Dąb vs Paproć) i optymalizacja formuł.</t>
+  </si>
+  <si>
+    <t>Refaktoryzacja i czyszczenie kodu (usuwanie nadmiarowych logów, komentarze).</t>
+  </si>
+  <si>
+    <t>Weryfikacja i obsługa błędów bazy danych (np. Connection Lost).</t>
+  </si>
+  <si>
+    <t>Przygotowanie finalnej prezentacji projektu i instrukcji uruchomienia.</t>
+  </si>
+  <si>
+    <t>Finalna weryfikacja wszystkich wymagań i drobne poprawki UI/UX.</t>
   </si>
 </sst>
 </file>
@@ -252,7 +336,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -661,7 +745,6 @@
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000F-960E-43FC-BD78-752869D24B01}"/>
@@ -671,7 +754,6 @@
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
-            <c:spPr/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000010-960E-43FC-BD78-752869D24B01}"/>
@@ -681,7 +763,6 @@
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
-            <c:spPr/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000011-960E-43FC-BD78-752869D24B01}"/>
@@ -3257,15 +3338,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02050265-4C26-49A7-97B2-50CC0710DF2F}">
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:AA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -3901,16 +3982,391 @@
         <v>21.5</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="6">
+        <f>SUM(C31:C38)</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <f>SUM(D31:D38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="3">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="6">
+        <f>SUM(C41:C49)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="6">
+        <f>SUM(D41:D49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="3">
+        <v>5</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="6">
+        <f>SUM(C52:C61)</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="6">
+        <f>SUM(D52:D61)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A50:B50"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/raport_z_zarzadzania_projektem.xlsx
+++ b/raport_z_zarzadzania_projektem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_STUDIA\GardenPlanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A995DCC-7188-4B15-91D8-A10F50B7B1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23714968-1FE3-4AE4-A2B7-764023F26A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C072CB22-C9CB-4645-B5DF-C215F3A34585}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
   <si>
     <t>ZADANIE</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Implementacja metody LoadPlantTypes</t>
   </si>
   <si>
-    <t>Implementacja metody LoadSoilTypes i LoadGrowthRules</t>
-  </si>
-  <si>
     <t>Refaktoryzacja UI</t>
   </si>
   <si>
@@ -200,15 +197,6 @@
     <t>Wizualny feedback: rysowanie Czerwonego/Zielonego okręgu na kursorze</t>
   </si>
   <si>
-    <t>Implementacja ekranu ładowania/spinnera podczas ładowania danych z bazy.</t>
-  </si>
-  <si>
-    <t>Implementacja LoadGardenState() - odczyt danych i instancjonowanie roślin z DB.</t>
-  </si>
-  <si>
-    <t>Implementacja zapisu danych stanu ogrodu do bazy danych (DB write logic).</t>
-  </si>
-  <si>
     <t>Sporządzenie wstępnej dokumentacji technicznej: schemat DB (SQL) i API C#.</t>
   </si>
   <si>
@@ -230,19 +218,40 @@
     <t>Testy funkcjonalne Save/Load: Weryfikacja stanu po zapisie/wczytaniu.</t>
   </si>
   <si>
-    <t>Testy krańcowe kolizji i zacienienia (Dąb vs Paproć) i optymalizacja formuł.</t>
-  </si>
-  <si>
-    <t>Refaktoryzacja i czyszczenie kodu (usuwanie nadmiarowych logów, komentarze).</t>
-  </si>
-  <si>
-    <t>Weryfikacja i obsługa błędów bazy danych (np. Connection Lost).</t>
-  </si>
-  <si>
     <t>Przygotowanie finalnej prezentacji projektu i instrukcji uruchomienia.</t>
   </si>
   <si>
     <t>Finalna weryfikacja wszystkich wymagań i drobne poprawki UI/UX.</t>
+  </si>
+  <si>
+    <t>Rozbudowanie bazy danych</t>
+  </si>
+  <si>
+    <t>Przygotowanie tekstur roślin</t>
+  </si>
+  <si>
+    <t>Implementacja metody LoadSoilTypes</t>
+  </si>
+  <si>
+    <t>Implementacja wyboru rozmiaru ogrodu</t>
+  </si>
+  <si>
+    <t>Implementacja zapisu danych stanu ogrodu.</t>
+  </si>
+  <si>
+    <t>Dodanie przycisku i implementacja logiki przyspieszenia czasu symulacji</t>
+  </si>
+  <si>
+    <t>Testy krańcowe kolizji i zacienienia i optymalizacja formuł.</t>
+  </si>
+  <si>
+    <t>Refaktoryzacja i czyszczenie kodu.</t>
+  </si>
+  <si>
+    <t>Weryfikacja i obsługa błędów bazy danych.</t>
+  </si>
+  <si>
+    <t>Implementacja LoadGardenState.</t>
   </si>
 </sst>
 </file>
@@ -303,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -311,12 +320,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,12 +421,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dobry" xfId="1" builtinId="26"/>
@@ -685,6 +786,217 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Wykonanie</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$Y$4:$Y$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$O$4:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Jakub Darul</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Michał Kierzkowski</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mateusz Lamla</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wszyscy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$Y$4:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-12EC-4183-AA60-DD0FAB39064A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1141,13 +1453,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1292,13 +1604,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1505,13 +1817,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1750,6 +2062,1508 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Estymata</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$T$4:$T$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A0A7-4F88-B8C5-514A08831005}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A0A7-4F88-B8C5-514A08831005}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A0A7-4F88-B8C5-514A08831005}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$O$4:$O$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Jakub Darul</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Michał Kierzkowski</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mateusz Lamla</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$T$4:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A0A7-4F88-B8C5-514A08831005}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Wykonanie</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$U$4:$U$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7,5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7,5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$O$4:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Jakub Darul</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Michał Kierzkowski</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mateusz Lamla</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wszyscy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$U$4:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-925C-4C57-BDB0-A37B595657DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Estymata</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$V$4:$V$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F91E-4C43-B079-B1BF0FB5871E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F91E-4C43-B079-B1BF0FB5871E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F91E-4C43-B079-B1BF0FB5871E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$O$4:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Jakub Darul</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Michał Kierzkowski</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mateusz Lamla</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wszyscy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$V$4:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F91E-4C43-B079-B1BF0FB5871E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Wykonanie</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$W$4:$W$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5,5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$O$4:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Jakub Darul</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Michał Kierzkowski</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mateusz Lamla</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wszyscy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$W$4:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA50-4FF2-ACFC-9815D8B70781}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Estymata</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$X$4:$X$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-851D-4DB2-B5F6-3520CC56527A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-851D-4DB2-B5F6-3520CC56527A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-851D-4DB2-B5F6-3520CC56527A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$O$4:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Jakub Darul</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Michał Kierzkowski</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mateusz Lamla</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wszyscy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$X$4:$X$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-851D-4DB2-B5F6-3520CC56527A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1830,6 +3644,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -2350,6 +4284,1563 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2873,15 +6364,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2909,15 +6400,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2945,15 +6436,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2983,15 +6474,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3013,6 +6504,234 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>138114</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F55EAB55-8504-4122-B234-CFCFF42FED5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F8254DE-F01F-4479-8C27-AAEBFD42CD75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>71439</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Wykres 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF45B82-18CB-44FF-BEBE-49443F6175DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Wykres 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E0BEB2-151D-4E8A-B2D7-75DB95C98E54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>4764</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Wykres 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A7FEE9-C5C3-497C-9912-325062643461}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Wykres 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A097601E-FB29-4D91-8B04-9B9EAA9A494D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3338,10 +7057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02050265-4C26-49A7-97B2-50CC0710DF2F}">
-  <dimension ref="A1:AA62"/>
+  <dimension ref="A1:AA65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18:R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3393,30 +7112,30 @@
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7" t="s">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7" t="s">
+      <c r="S2" s="9"/>
+      <c r="T2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7" t="s">
+      <c r="U2" s="14"/>
+      <c r="V2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7" t="s">
+      <c r="W2" s="14"/>
+      <c r="X2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7" t="s">
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="7"/>
+      <c r="AA2" s="9"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3434,40 +7153,40 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3490,29 +7209,53 @@
       <c r="O4" t="s">
         <v>17</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="10">
         <f>SUMIFS($C:$C, $B:$B, $O4, $E:$E, $B$2)</f>
         <v>5</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="11">
         <f>SUMIFS($D:$D, $B:$B, $O4, $E:$E, $B$2)</f>
         <v>5</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="10">
         <f>SUMIFS($C:$C, $B:$B, $O4, $E:$E, $B$16)</f>
+        <v>8</v>
+      </c>
+      <c r="S4" s="11">
+        <f>SUMIFS($D:$D, $B:$B, $O4, $E:$E, $B$16)</f>
         <v>7</v>
       </c>
-      <c r="S4">
-        <f>SUMIFS($D:$D, $B:$B, $O4, $E:$E, $B$16)</f>
+      <c r="T4" s="10">
+        <f>SUMIFS($C:$C, $B:$B, $O4, $E:$E, $B$30)</f>
+        <v>10</v>
+      </c>
+      <c r="U4" s="15">
+        <f>SUMIFS($D:$D, $B:$B, $O4, $E:$E, $B$30)</f>
+        <v>10</v>
+      </c>
+      <c r="V4" s="10">
+        <f>SUMIFS($C:$C, $B:$B, $O4, $E:$E, $B$43)</f>
         <v>6</v>
       </c>
-      <c r="Z4">
+      <c r="W4" s="15">
+        <f>SUMIFS($D:$D, $B:$B, $O4, $E:$E, $B$43)</f>
+        <v>5.5</v>
+      </c>
+      <c r="X4" s="10">
+        <f>SUMIFS($C:$C, $B:$B, $O4, $E:$E, $B$54)</f>
+        <v>2</v>
+      </c>
+      <c r="Y4" s="15">
+        <f>SUMIFS($D:$D, $B:$B, $O4, $E:$E, $B$54)</f>
+        <v>2</v>
+      </c>
+      <c r="Z4" s="10">
         <f>SUM(P4,R4,T4,V4,X4)</f>
-        <v>12</v>
-      </c>
-      <c r="AA4">
+        <v>31</v>
+      </c>
+      <c r="AA4" s="11">
         <f>SUM(Q4,S4,U4,W4,Y4)</f>
-        <v>11</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -3534,29 +7277,53 @@
       <c r="O5" t="s">
         <v>15</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="10">
         <f>SUMIFS($C:$C, $B:$B, $O5, $E:$E, $B$2)</f>
         <v>8</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="11">
         <f>SUMIFS($D:$D, $B:$B, $O5, $E:$E, $B$2)</f>
         <v>8</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="10">
         <f>SUMIFS($C:$C, $B:$B, $O5, $E:$E, $B$16)</f>
         <v>8</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="11">
         <f>SUMIFS($D:$D, $B:$B, $O5, $E:$E, $B$16)</f>
         <v>7.5</v>
       </c>
-      <c r="Z5">
-        <f t="shared" ref="Z5:Z6" si="0">SUM(P5,R5,T5,V5,X5)</f>
-        <v>16</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" ref="AA5:AA6" si="1">SUM(Q5,S5,U5,W5,Y5)</f>
-        <v>15.5</v>
+      <c r="T5" s="10">
+        <f>SUMIFS($C:$C, $B:$B, $O5, $E:$E, $B$30)</f>
+        <v>9</v>
+      </c>
+      <c r="U5" s="15">
+        <f t="shared" ref="U5:U6" si="0">SUMIFS($D:$D, $B:$B, $O5, $E:$E, $B$30)</f>
+        <v>7.5</v>
+      </c>
+      <c r="V5" s="10">
+        <f>SUMIFS($C:$C, $B:$B, $O5, $E:$E, $B$43)</f>
+        <v>5</v>
+      </c>
+      <c r="W5" s="15">
+        <f>SUMIFS($D:$D, $B:$B, $O5, $E:$E, $B$43)</f>
+        <v>4</v>
+      </c>
+      <c r="X5" s="10">
+        <f>SUMIFS($C:$C, $B:$B, $O5, $E:$E, $B$54)</f>
+        <v>4</v>
+      </c>
+      <c r="Y5" s="15">
+        <f>SUMIFS($D:$D, $B:$B, $O5, $E:$E, $B$54)</f>
+        <v>4</v>
+      </c>
+      <c r="Z5" s="10">
+        <f t="shared" ref="Z5:Z6" si="1">SUM(P5,R5,T5,V5,X5)</f>
+        <v>34</v>
+      </c>
+      <c r="AA5" s="11">
+        <f t="shared" ref="AA5:AA7" si="2">SUM(Q5,S5,U5,W5,Y5)</f>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -3578,29 +7345,53 @@
       <c r="O6" t="s">
         <v>16</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="12">
         <f>SUMIFS($C:$C, $B:$B, $O6, $E:$E, $B$2)</f>
         <v>4</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="13">
         <f>SUMIFS($D:$D, $B:$B, $O6, $E:$E, $B$2)</f>
         <v>5</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="12">
         <f>SUMIFS($C:$C, $B:$B, $O6, $E:$E, $B$16)</f>
-        <v>10</v>
-      </c>
-      <c r="S6">
+        <v>11</v>
+      </c>
+      <c r="S6" s="13">
         <f>SUMIFS($D:$D, $B:$B, $O6, $E:$E, $B$16)</f>
-        <v>8</v>
-      </c>
-      <c r="Z6">
+        <v>9</v>
+      </c>
+      <c r="T6" s="12">
+        <f>SUMIFS($C:$C, $B:$B, $O6, $E:$E, $B$30)</f>
+        <v>9</v>
+      </c>
+      <c r="U6" s="16">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <v>7.5</v>
+      </c>
+      <c r="V6" s="10">
+        <f>SUMIFS($C:$C, $B:$B, $O6, $E:$E, $B$43)</f>
+        <v>6</v>
+      </c>
+      <c r="W6" s="15">
+        <f>SUMIFS($D:$D, $B:$B, $O6, $E:$E, $B$43)</f>
+        <v>6</v>
+      </c>
+      <c r="X6" s="10">
+        <f>SUMIFS($C:$C, $B:$B, $O6, $E:$E, $B$54)</f>
+        <v>4</v>
+      </c>
+      <c r="Y6" s="15">
+        <f>SUMIFS($D:$D, $B:$B, $O6, $E:$E, $B$54)</f>
+        <v>4</v>
+      </c>
+      <c r="Z6" s="10">
+        <f>SUM(P6,R6,T6,V6,X6)</f>
+        <v>34</v>
+      </c>
+      <c r="AA6" s="11">
+        <f t="shared" si="2"/>
+        <v>31.5</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -3619,6 +7410,33 @@
       <c r="E7">
         <v>1</v>
       </c>
+      <c r="O7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V7" s="12">
+        <f>SUMIFS($C:$C, $B:$B, $O7, $E:$E, $B$43)</f>
+        <v>3</v>
+      </c>
+      <c r="W7" s="16">
+        <f>SUMIFS($D:$D, $B:$B, $O7, $E:$E, $B$43)</f>
+        <v>3</v>
+      </c>
+      <c r="X7" s="12">
+        <f>SUMIFS($C:$C, $B:$B, $O7, $E:$E, $B$54)</f>
+        <v>14</v>
+      </c>
+      <c r="Y7" s="16">
+        <f>SUMIFS($D:$D, $B:$B, $O7, $E:$E, $B$54)</f>
+        <v>14</v>
+      </c>
+      <c r="Z7" s="12">
+        <f>SUM(P7,R7,T7,V7,X7)</f>
+        <v>17</v>
+      </c>
+      <c r="AA7" s="13">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3740,10 +7558,10 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="6">
         <f>SUM(C3:C14)</f>
         <v>17</v>
@@ -3874,10 +7692,10 @@
         <v>17</v>
       </c>
       <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
         <v>3</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -3908,10 +7726,10 @@
         <v>16</v>
       </c>
       <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
         <v>3</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -3969,17 +7787,17 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="6">
         <f>SUM(C17:C28)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D29" s="6">
         <f>SUM(D17:D28)</f>
-        <v>21.5</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -4000,6 +7818,12 @@
       <c r="B31" t="s">
         <v>15</v>
       </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
       <c r="E31">
         <v>3</v>
       </c>
@@ -4011,6 +7835,12 @@
       <c r="B32" t="s">
         <v>17</v>
       </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
       <c r="E32">
         <v>3</v>
       </c>
@@ -4022,16 +7852,28 @@
       <c r="B33" t="s">
         <v>16</v>
       </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
       <c r="E33">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -4039,10 +7881,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -4050,10 +7898,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>1.5</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -4061,10 +7915,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -4072,79 +7932,109 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
       </c>
       <c r="E38">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="6">
-        <f>SUM(C31:C38)</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="6">
-        <f>SUM(D31:D38)</f>
-        <v>0</v>
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="3">
-        <v>4</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>2.5</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42">
-        <v>4</v>
+      <c r="A42" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="6">
+        <f>SUM(C31:C41)</f>
+        <v>28</v>
+      </c>
+      <c r="D42" s="6">
+        <f>SUM(D31:D41)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43">
+      <c r="A43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="3">
         <v>4</v>
       </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -4152,10 +8042,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
       </c>
       <c r="E45">
         <v>4</v>
@@ -4163,10 +8059,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>1.5</v>
       </c>
       <c r="E46">
         <v>4</v>
@@ -4174,10 +8076,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -4185,10 +8093,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
       </c>
       <c r="E48">
         <v>4</v>
@@ -4196,79 +8110,109 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
       </c>
       <c r="E49">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="6">
-        <f>SUM(C41:C49)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="6">
-        <f>SUM(D41:D49)</f>
-        <v>0</v>
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="3">
-        <v>5</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>54</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53">
-        <v>5</v>
+      <c r="A53" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="6">
+        <f>SUM(C44:C52)</f>
+        <v>20</v>
+      </c>
+      <c r="D53" s="6">
+        <f>SUM(D44:D52)</f>
+        <v>18.5</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54">
+      <c r="A54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="3">
         <v>5</v>
       </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
       </c>
       <c r="E55">
         <v>5</v>
@@ -4276,10 +8220,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>15</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
       </c>
       <c r="E56">
         <v>5</v>
@@ -4287,10 +8237,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>17</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
       </c>
       <c r="E57">
         <v>5</v>
@@ -4298,10 +8254,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>54</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
       </c>
       <c r="E58">
         <v>5</v>
@@ -4309,10 +8271,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>54</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
       </c>
       <c r="E59">
         <v>5</v>
@@ -4320,10 +8288,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
       </c>
       <c r="E60">
         <v>5</v>
@@ -4331,42 +8305,99 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
       </c>
       <c r="E61">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="6">
-        <f>SUM(C52:C61)</f>
-        <v>0</v>
-      </c>
-      <c r="D62" s="6">
-        <f>SUM(D52:D61)</f>
-        <v>0</v>
+      <c r="B65" s="7"/>
+      <c r="C65" s="6">
+        <f>SUM(C55:C64)</f>
+        <v>24</v>
+      </c>
+      <c r="D65" s="6">
+        <f>SUM(D55:D64)</f>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A50:B50"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A53:B53"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
